--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,18 +88,12 @@
 A profile showing how `labTestPromise` is mapped into a FHIR `DiagnosticReport`, `Observation`, and `Specimen`. Where the `labTestPromise` only has `labSubscript` of `CH` (Chem-Hem).
 The `labTestPromises` is mapped onto this FHIR `DiagnosticReport` for laboratory reporting. The mapping to [HDR labTestPromise](StructureDefinition-VA.MHV.PHR.chReport-mappings.html#mappings-for-hdr-to-mhv-phr-labtestpromises)
 - code.text must be `CH`. No other codeing values
-- category must be `LAB`
+- category must be `http://terminology.hl7.org/CodeSystem/v2-0074#LAB`
 - category also holds 1..* codes from the contained Observation.code
 The `labTestPromises.labTests` are each recorded as a FHIR [Observation result](StructureDefinition-VA.MHV.PHR.chTest.html) that is contained in the DiagnosticReport. The map to [HDR chTestPromise](StructureDefinition-VA.MHV.PHR.chTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
 The `labTestPromises.specimen` is mapped into a FHIR [Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen.html) resource that is contained in the DiagnosticReport. The map to [HDR Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen-mappings.html#mappings-for-hdr-labtestpromises-specimen-to-mhv-phr-labtestpromises-specimen).
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-This profile is based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. 
-TODO: There are some code `system` values that are simple strings. To make them into URI/URL I prepend `http://example.org`, but something better needs to come along.
-- HL70070
-- 99VA60
-- 99VA61
-- 99VA64
-- 99VA95.3</t>
+This profile is **not** based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. That profile requires use of us-core Practitioner that I can't extend the way we need to.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -129,7 +123,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -268,7 +262,7 @@
   </si>
   <si>
     <t>Report
-TestResultResultsLabsLaboratoryLab ResultLab Report</t>
+TestResultResultsLabsLaboratory</t>
   </si>
   <si>
     <t>0</t>
@@ -287,7 +281,10 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+  </si>
+  <si>
+    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
     <t>Event</t>
@@ -932,11 +929,7 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>us-core-8
-us-core-9</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1013,19 +1006,16 @@
 </t>
   </si>
   <si>
-    <t>US Core Laboratory Report Order Code</t>
-  </si>
-  <si>
-    <t>The test, panel or battery that was ordered.</t>
-  </si>
-  <si>
-    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
-  </si>
-  <si>
-    <t>LOINC codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-lab-codes</t>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1107,7 +1097,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -1181,7 +1171,7 @@
 Period</t>
   </si>
   <si>
-    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
+    <t>Clinically relevant time/time-period for report</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1197,10 +1187,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8
-</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1233,7 +1219,7 @@
 Date IssuedDate Verified</t>
   </si>
   <si>
-    <t>When the report was released</t>
+    <t>DateTime this version was made</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1243,10 +1229,6 @@
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-9
-</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1265,11 +1247,11 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service</t>
+    <t>performingOrganization</t>
   </si>
   <si>
     <t>The diagnostic service that is responsible for issuing the report.</t>
@@ -1884,7 +1866,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="171.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1899,7 +1881,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2078,7 +2060,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2143,27 +2125,27 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2174,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2183,19 +2165,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2245,13 +2227,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2277,10 +2259,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2291,7 +2273,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2300,16 +2282,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2360,19 +2342,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2392,10 +2374,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2406,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
@@ -2418,13 +2400,13 @@
         <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2475,13 +2457,13 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
@@ -2496,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>81</v>
@@ -2507,14 +2489,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2533,16 +2515,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2580,19 +2562,19 @@
         <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2604,7 +2586,7 @@
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2613,7 +2595,7 @@
         <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>81</v>
@@ -2624,10 +2606,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2638,7 +2620,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2647,19 +2629,19 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2709,19 +2691,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2741,10 +2723,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2755,7 +2737,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>81</v>
@@ -2764,19 +2746,19 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2826,19 +2808,19 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>81</v>
@@ -2853,15 +2835,15 @@
         <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2872,7 +2854,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>81</v>
@@ -2881,19 +2863,19 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2943,19 +2925,19 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2975,10 +2957,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2998,19 +2980,19 @@
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3060,7 +3042,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3072,7 +3054,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3092,10 +3074,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3115,19 +3097,19 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3153,13 +3135,13 @@
         <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>81</v>
@@ -3177,7 +3159,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3189,7 +3171,7 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
@@ -3209,10 +3191,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3232,19 +3214,19 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3270,13 +3252,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3294,7 +3276,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3306,7 +3288,7 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>81</v>
@@ -3326,10 +3308,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3340,28 +3322,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3411,19 +3393,19 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3443,10 +3425,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3457,7 +3439,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3469,16 +3451,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3504,13 +3486,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3528,19 +3510,19 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3560,21 +3542,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3586,16 +3568,16 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3645,19 +3627,19 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3666,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3677,14 +3659,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3703,16 +3685,16 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3762,7 +3744,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3783,7 +3765,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3794,14 +3776,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3820,16 +3802,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3879,7 +3861,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3891,7 +3873,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3900,7 +3882,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3911,14 +3893,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3931,25 +3913,25 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3998,7 +3980,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4010,7 +3992,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4019,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4030,18 +4012,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -4053,22 +4035,22 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4105,17 +4087,17 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4127,19 +4109,19 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4147,23 +4129,23 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4172,22 +4154,22 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4236,7 +4218,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4248,19 +4230,19 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4268,10 +4250,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4282,7 +4264,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4294,13 +4276,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4351,13 +4333,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4372,7 +4354,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4383,14 +4365,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4409,16 +4391,16 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4456,19 +4438,19 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4480,7 +4462,7 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4489,7 +4471,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4500,10 +4482,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4511,34 +4493,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4548,7 +4530,7 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>81</v>
@@ -4563,13 +4545,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4587,28 +4569,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4619,10 +4601,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4633,7 +4615,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4642,22 +4624,22 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4682,13 +4664,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4706,28 +4688,28 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4738,10 +4720,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4752,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4761,22 +4743,22 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4789,7 +4771,7 @@
         <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -4825,28 +4807,28 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4857,10 +4839,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4871,7 +4853,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4880,19 +4862,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4906,7 +4888,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -4942,28 +4924,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4974,10 +4956,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4988,7 +4970,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4997,16 +4979,16 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5057,28 +5039,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5089,10 +5071,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5103,7 +5085,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5112,19 +5094,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5174,28 +5156,28 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5206,14 +5188,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5232,19 +5214,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5293,7 +5275,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5305,16 +5287,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5325,10 +5307,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5336,32 +5318,32 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5386,11 +5368,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5408,19 +5392,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>292</v>
@@ -5451,22 +5435,22 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>299</v>
@@ -5501,7 +5485,7 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>302</v>
@@ -5520,7 +5504,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>297</v>
@@ -5535,7 +5519,7 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5568,22 +5552,22 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>299</v>
@@ -5618,7 +5602,7 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>302</v>
@@ -5654,7 +5638,7 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5685,22 +5669,22 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>314</v>
@@ -5708,9 +5692,7 @@
       <c r="M33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5735,13 +5717,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5762,39 +5744,39 @@
         <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5805,7 +5787,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5817,13 +5799,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5874,13 +5856,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5895,7 +5877,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5906,14 +5888,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5932,16 +5914,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5979,19 +5961,19 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6003,7 +5985,7 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -6012,7 +5994,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6023,10 +6005,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6046,22 +6028,22 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6110,7 +6092,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6122,16 +6104,16 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6142,10 +6124,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6156,7 +6138,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6165,22 +6147,22 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6190,67 +6172,67 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="T37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6261,43 +6243,43 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6346,46 +6328,46 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6401,22 +6383,22 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6465,31 +6447,31 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6497,45 +6479,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6572,41 +6554,41 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6614,47 +6596,47 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D41" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6703,77 +6685,77 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AO41" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6822,46 +6804,46 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6871,28 +6853,28 @@
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6941,7 +6923,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6953,34 +6935,34 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6996,22 +6978,22 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="O44" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7042,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7072,19 +7054,19 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7092,10 +7074,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7109,7 +7091,7 @@
         <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
@@ -7118,19 +7100,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7179,7 +7161,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7191,34 +7173,34 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7228,7 +7210,7 @@
         <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>81</v>
@@ -7237,19 +7219,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7298,7 +7280,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7310,30 +7292,30 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7356,16 +7338,16 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7415,7 +7397,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7427,7 +7409,7 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7436,7 +7418,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7447,14 +7429,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7470,20 +7452,20 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7532,7 +7514,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7544,16 +7526,16 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7564,10 +7546,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7578,7 +7560,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7590,13 +7572,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7647,13 +7629,13 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
@@ -7668,7 +7650,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7679,14 +7661,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7705,16 +7687,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7764,7 +7746,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7776,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7785,7 +7767,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7796,14 +7778,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7816,25 +7798,25 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7883,7 +7865,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7895,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7904,7 +7886,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7915,10 +7897,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7929,7 +7911,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7941,19 +7923,19 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8002,19 +7984,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8023,7 +8005,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8034,10 +8016,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8045,10 +8027,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8057,16 +8039,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8117,19 +8099,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8138,7 +8120,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8149,24 +8131,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8175,17 +8157,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8234,42 +8216,42 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8292,13 +8274,13 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8325,13 +8307,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8349,7 +8331,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8361,16 +8343,16 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8381,10 +8363,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8407,19 +8389,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8468,7 +8450,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8480,16 +8462,16 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,8 @@
 - code.text must be `CH`. No other codeing values
 - category must be `http://terminology.hl7.org/CodeSystem/v2-0074#LAB`
 - category also holds 1..* codes from the contained Observation.code
-The `labTestPromises.labTests` are each recorded as a FHIR [Observation result](StructureDefinition-VA.MHV.PHR.chTest.html) that is contained in the DiagnosticReport. The map to [HDR chTestPromise](StructureDefinition-VA.MHV.PHR.chTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
+the `labTestPromises.labTests.orderedTestCode` is recorded as a [Observation panel](StructureDefinition-VA.MHV.PHR.chPanel.html) that is contained in the DiagnosticReport. This is unusual, but preserves the structure we are given from the HDR. The Panel points at the chemestryResults within that labTests. The map to [HDR orderedTestCode](StructureDefinition-VA.MHV.PHR.chPanel-mappings.html#mappings-for-hdr-labtests-panel-to-mhv-phr-labtestpromises-labtests-orderedtestcode). 
+The `labTestPromises.labTests.chemistryResult` are each recorded as a FHIR [Observation result](StructureDefinition-VA.MHV.PHR.chTest.html) that is contained in the DiagnosticReport. The map to [HDR chTestPromise](StructureDefinition-VA.MHV.PHR.chTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
 The `labTestPromises.specimen` is mapped into a FHIR [Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen.html) resource that is contained in the DiagnosticReport. The map to [HDR Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen-mappings.html#mappings-for-hdr-labtestpromises-specimen-to-mhv-phr-labtestpromises-specimen).
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
 This profile is **not** based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. That profile requires use of us-core Practitioner that I can't extend the way we need to.</t>
@@ -1333,7 +1334,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chTest) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chTest|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chPanel) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1866,7 +1867,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="176.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,7 +94,11 @@
 The `labTestPromises.labTests.chemistryResult` are each recorded as a FHIR [Observation result](StructureDefinition-VA.MHV.PHR.chTest.html) that is contained in the DiagnosticReport. The map to [HDR chTestPromise](StructureDefinition-VA.MHV.PHR.chTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
 The `labTestPromises.specimen` is mapped into a FHIR [Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen.html) resource that is contained in the DiagnosticReport. The map to [HDR Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen-mappings.html#mappings-for-hdr-labtestpromises-specimen-to-mhv-phr-labtestpromises-specimen).
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-This profile is **not** based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. That profile requires use of us-core Practitioner that I can't extend the way we need to.</t>
+This profile is **not** based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. That profile requires use of us-core Practitioner that I can't extend the way we need to. Except for that problem, I have replicated all the other us-core requirements.
+Notes:
+- current distinguishing between panel and results is by way of if the `hasMember` element is populated. Panel will have no `value[x]` and will have `hasMember` populated; where as results will have a `value[x]` and will not have `hasMember` populated. 
+  - Could create a code to use in `category`, but that would mean defining a Canonical URI in this publication which today is informal and published on my personal github repo. Would prefer not creating a code.
+  - I am checkng with the VA C-CDA team to see if they have set a precedence that I could use.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.15-beta</t>
+    <t>0.1.16-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:47:17-05:00</t>
+    <t>2023-06-13T11:38:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,129 +141,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HDR to MHV-PHR</t>
   </si>
   <si>
     <t>Report
@@ -1646,10 +1523,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1852,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1865,11 +1742,10 @@
     <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="176.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1877,6616 +1753,6491 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="53.09765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH21" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>66</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>378</v>
+        <v>86</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>415</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>423</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>64</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>65</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>66</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>67</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>68</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>111</v>
+        <v>401</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>113</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>114</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>119</v>
+        <v>404</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>191</v>
+        <v>410</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>453</v>
+        <v>64</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>468</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>469</v>
+        <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8496,7 +8247,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,21 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The given labTestPromise example aligns with the `Lab.xsd` schema. 
-A profile showing how `labTestPromise` is mapped into a FHIR `DiagnosticReport`, `Observation`, and `Specimen`. Where the `labTestPromise` only has `labSubscript` of `CH` (Chem-Hem).
-The `labTestPromises` is mapped onto this FHIR `DiagnosticReport` for laboratory reporting. The mapping to [HDR labTestPromise](StructureDefinition-VA.MHV.PHR.chReport-mappings.html#mappings-for-hdr-to-mhv-phr-labtestpromises)
-- code.text must be `CH`. No other codeing values
-- category must be `http://terminology.hl7.org/CodeSystem/v2-0074#LAB`
-- category also holds 1..* codes from the contained Observation.code
-the `labTestPromises.labTests.orderedTestCode` is recorded as a [Observation panel](StructureDefinition-VA.MHV.PHR.chPanel.html) that is contained in the DiagnosticReport. This is unusual, but preserves the structure we are given from the HDR. The Panel points at the chemestryResults within that labTests. The map to [HDR orderedTestCode](StructureDefinition-VA.MHV.PHR.chPanel-mappings.html#mappings-for-hdr-labtests-panel-to-mhv-phr-labtestpromises-labtests-orderedtestcode). 
-The `labTestPromises.labTests.chemistryResult` are each recorded as a FHIR [Observation result](StructureDefinition-VA.MHV.PHR.chTest.html) that is contained in the DiagnosticReport. The map to [HDR chTestPromise](StructureDefinition-VA.MHV.PHR.chTest-mappings.html#mappings-for-hdr-labtests-to-mhv-phr-labtestpromises-labtests). 
-The `labTestPromises.specimen` is mapped into a FHIR [Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen.html) resource that is contained in the DiagnosticReport. The map to [HDR Specimen](StructureDefinition-VA.MHV.PHR.chSpecimen-mappings.html#mappings-for-hdr-labtestpromises-specimen-to-mhv-phr-labtestpromises-specimen).
-The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-This profile is **not** based on [US-Core DiagnosticReport profile for Laboratory Results Reporting](https://hl7.org/fhir/us/core/StructureDefinition-us-core-diagnosticreport-lab.html) and lab Observations. That profile requires use of us-core Practitioner that I can't extend the way we need to. Except for that problem, I have replicated all the other us-core requirements.
-Notes:
-- current distinguishing between panel and results is by way of if the `hasMember` element is populated. Panel will have no `value[x]` and will have `hasMember` populated; where as results will have a `value[x]` and will not have `hasMember` populated. 
-  - Could create a code to use in `category`, but that would mean defining a Canonical URI in this publication which today is informal and published on my personal github repo. Would prefer not creating a code.
-  - I am checkng with the VA C-CDA team to see if they have set a precedence that I could use.</t>
+    <t>Profile on DiagnosticReport for Chem-Hem lab report.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chReport</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chReport</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1115,7 +1115,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.practitioner)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner)
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chSpecimen) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chSpecimen) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chTest|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.chPanel) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chTest|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chPanel) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1733,7 +1733,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="176.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="230.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -155,6 +155,10 @@
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -665,6 +669,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -1115,7 +1123,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1733,7 +1741,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="230.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="238.87109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1864,30 +1872,30 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1898,7 +1906,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -1907,19 +1915,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1969,13 +1977,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2001,10 +2009,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2015,7 +2023,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2024,16 +2032,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2084,19 +2092,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2116,10 +2124,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2130,7 +2138,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -2142,13 +2150,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2199,13 +2207,13 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -2220,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>40</v>
@@ -2231,14 +2239,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2257,16 +2265,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,19 +2312,19 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2328,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2337,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>40</v>
@@ -2348,10 +2356,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2362,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2371,19 +2379,19 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2433,19 +2441,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2465,10 +2473,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2479,7 +2487,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
@@ -2488,19 +2496,19 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2550,19 +2558,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -2577,15 +2585,15 @@
         <v>40</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2596,7 +2604,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -2605,19 +2613,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2667,19 +2675,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2699,10 +2707,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2722,19 +2730,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2784,7 +2792,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2796,7 +2804,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2816,10 +2824,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2839,19 +2847,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2877,13 +2885,13 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>40</v>
@@ -2901,7 +2909,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2913,7 +2921,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -2933,10 +2941,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2956,19 +2964,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2994,13 +3002,13 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>40</v>
@@ -3018,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3030,7 +3038,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -3050,10 +3058,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3064,28 +3072,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3135,19 +3143,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3167,10 +3175,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3181,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3193,16 +3201,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3228,13 +3236,13 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>40</v>
@@ -3252,19 +3260,19 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3284,21 +3292,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -3310,16 +3318,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3369,19 +3377,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3390,7 +3398,7 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -3401,14 +3409,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3427,16 +3435,16 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3486,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3507,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -3518,14 +3526,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3544,16 +3552,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3603,7 +3611,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3615,7 +3623,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3624,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3635,14 +3643,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3655,25 +3663,25 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -3722,7 +3730,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3734,7 +3742,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -3743,7 +3751,7 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -3754,18 +3762,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3777,22 +3785,22 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -3829,17 +3837,17 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3851,19 +3859,19 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -3871,23 +3879,23 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -3896,22 +3904,22 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -3960,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -3972,19 +3980,19 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -3992,10 +4000,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4006,7 +4014,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -4018,13 +4026,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4075,13 +4083,13 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
@@ -4096,7 +4104,7 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>40</v>
@@ -4107,14 +4115,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4133,16 +4141,16 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4180,19 +4188,19 @@
         <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4204,7 +4212,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -4213,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>40</v>
@@ -4224,10 +4232,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4235,34 +4243,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4272,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -4287,13 +4295,13 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -4311,28 +4319,28 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>40</v>
@@ -4343,10 +4351,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4357,7 +4365,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -4366,22 +4374,22 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4406,13 +4414,13 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
@@ -4430,28 +4438,28 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>40</v>
@@ -4462,10 +4470,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4476,7 +4484,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4485,22 +4493,22 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4513,7 +4521,7 @@
         <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>40</v>
@@ -4549,28 +4557,28 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -4581,10 +4589,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4595,7 +4603,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -4604,19 +4612,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4630,7 +4638,7 @@
         <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>40</v>
@@ -4666,28 +4674,28 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -4698,10 +4706,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4712,7 +4720,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4721,16 +4729,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4781,28 +4789,28 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -4813,10 +4821,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4827,7 +4835,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4836,19 +4844,19 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4898,28 +4906,28 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>40</v>
@@ -4930,14 +4938,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4956,19 +4964,19 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5017,7 +5025,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5029,16 +5037,16 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5049,10 +5057,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5060,32 +5068,32 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5110,98 +5118,98 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5227,29 +5235,29 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5261,43 +5269,43 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -5306,19 +5314,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5329,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5344,13 +5352,13 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5368,7 +5376,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5380,19 +5388,19 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -5400,39 +5408,39 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5459,13 +5467,13 @@
         <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5483,42 +5491,42 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5529,7 +5537,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5541,13 +5549,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5598,13 +5606,13 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
@@ -5619,7 +5627,7 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5630,14 +5638,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5656,16 +5664,16 @@
         <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5703,19 +5711,19 @@
         <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5727,7 +5735,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -5736,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -5747,10 +5755,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5770,22 +5778,22 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -5834,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -5846,16 +5854,16 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -5866,10 +5874,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5880,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -5889,22 +5897,22 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -5914,7 +5922,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -5953,28 +5961,28 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -5985,21 +5993,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6008,20 +6016,20 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6070,46 +6078,46 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6125,22 +6133,22 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6189,31 +6197,31 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6221,21 +6229,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -6244,22 +6252,22 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6296,41 +6304,41 @@
         <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6338,47 +6346,47 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -6427,77 +6435,77 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -6546,46 +6554,46 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6595,28 +6603,28 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -6665,7 +6673,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6677,34 +6685,34 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6720,22 +6728,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -6784,7 +6792,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6796,19 +6804,19 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -6816,10 +6824,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6833,7 +6841,7 @@
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
@@ -6842,19 +6850,19 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -6903,7 +6911,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6915,34 +6923,34 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6952,7 +6960,7 @@
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
@@ -6961,19 +6969,19 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7022,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7034,30 +7042,30 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7080,16 +7088,16 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7139,7 +7147,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7151,7 +7159,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7160,7 +7168,7 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7171,14 +7179,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7194,20 +7202,20 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7256,7 +7264,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7268,16 +7276,16 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
@@ -7288,10 +7296,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7302,7 +7310,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
@@ -7314,13 +7322,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7371,13 +7379,13 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
@@ -7392,7 +7400,7 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>40</v>
@@ -7403,14 +7411,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7429,16 +7437,16 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7488,7 +7496,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7500,7 +7508,7 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -7509,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
@@ -7520,14 +7528,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7540,25 +7548,25 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -7607,7 +7615,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7619,7 +7627,7 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -7628,7 +7636,7 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
@@ -7639,10 +7647,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7653,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7665,19 +7673,19 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -7726,19 +7734,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -7747,7 +7755,7 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
@@ -7758,10 +7766,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7769,10 +7777,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7781,16 +7789,16 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7841,19 +7849,19 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -7862,7 +7870,7 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>40</v>
@@ -7873,24 +7881,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>40</v>
@@ -7899,17 +7907,17 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -7958,42 +7966,42 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8016,13 +8024,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8049,13 +8057,13 @@
         <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>40</v>
@@ -8073,7 +8081,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8085,16 +8093,16 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>40</v>
@@ -8105,10 +8113,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8131,19 +8139,19 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -8192,7 +8200,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8204,16 +8212,16 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -216,7 +216,200 @@
 </t>
   </si>
   <si>
-    <t>DiagnosticReport.meta.id</t>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:Rid</t>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:Rid.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -235,24 +428,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
+    <t>DiagnosticReport.identifier:Rid.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -262,319 +444,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>ConvertDate(labTestPromises.recordUpdateTime)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:use}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:Rid.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:Rid.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier:Rid.use</t>
@@ -635,6 +505,9 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -837,6 +710,9 @@
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes for diagnostic service sections.</t>
@@ -918,6 +794,10 @@
     <t>DiagnosticReport.code.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1093,6 +973,10 @@
   <si>
     <t>Date published
 Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
   </si>
   <si>
     <t>DateTime this version was made</t>
@@ -1723,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1754,7 +1638,7 @@
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
@@ -2144,10 +2028,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>65</v>
@@ -2158,7 +2042,9 @@
       <c r="M4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>40</v>
@@ -2207,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -2219,7 +2105,7 @@
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2228,7 +2114,7 @@
         <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>40</v>
@@ -2246,14 +2132,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2265,16 +2151,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2300,43 +2186,43 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2345,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>40</v>
@@ -2356,14 +2242,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2379,10 +2265,10 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>82</v>
@@ -2462,7 +2348,7 @@
         <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>40</v>
@@ -2473,21 +2359,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
@@ -2496,19 +2382,19 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2558,19 +2444,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -2579,32 +2465,32 @@
         <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -2613,19 +2499,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2675,19 +2561,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2696,7 +2582,7 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>40</v>
@@ -2707,14 +2593,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2727,24 +2613,26 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2792,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2804,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2813,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>40</v>
@@ -2824,18 +2712,18 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2850,18 +2738,20 @@
         <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2885,31 +2775,29 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2924,16 +2812,16 @@
         <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>40</v>
@@ -2941,21 +2829,23 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -2967,18 +2857,20 @@
         <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
       </c>
@@ -3002,13 +2894,13 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>40</v>
@@ -3026,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3041,16 +2933,16 @@
         <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>40</v>
@@ -3058,10 +2950,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3078,23 +2970,21 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>40</v>
@@ -3143,7 +3033,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3155,7 +3045,7 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3164,7 +3054,7 @@
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>40</v>
@@ -3175,21 +3065,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3201,16 +3091,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3236,28 +3126,28 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>135</v>
@@ -3266,13 +3156,13 @@
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3281,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>40</v>
@@ -3295,15 +3185,15 @@
         <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>51</v>
@@ -3312,24 +3202,26 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3338,7 +3230,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -3353,13 +3245,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3377,7 +3269,7 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3395,10 +3287,10 @@
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -3409,21 +3301,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -3432,21 +3324,23 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
       </c>
@@ -3470,13 +3364,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3494,28 +3388,28 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -3526,21 +3420,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3549,21 +3443,23 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
       </c>
@@ -3575,7 +3471,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -3611,28 +3507,28 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3643,46 +3539,44 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3694,7 +3588,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -3730,28 +3624,28 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -3762,21 +3656,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3788,20 +3682,16 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3837,23 +3727,25 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
@@ -3862,16 +3754,16 @@
         <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -3879,20 +3771,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>51</v>
@@ -3907,20 +3797,18 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3968,13 +3856,13 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
@@ -3983,16 +3871,16 @@
         <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4000,21 +3888,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -4026,16 +3914,20 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4083,28 +3975,28 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>40</v>
@@ -4115,44 +4007,44 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>40</v>
       </c>
@@ -4176,102 +4068,100 @@
         <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4280,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -4295,37 +4185,35 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
@@ -4337,32 +4225,34 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>51</v>
@@ -4377,20 +4267,18 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4399,7 +4287,7 @@
         <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>40</v>
@@ -4414,13 +4302,13 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
@@ -4438,13 +4326,13 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
@@ -4456,13 +4344,13 @@
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>40</v>
@@ -4470,24 +4358,24 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -4496,20 +4384,16 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4521,7 +4405,7 @@
         <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>40</v>
@@ -4533,13 +4417,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -4557,10 +4441,10 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>51</v>
@@ -4569,30 +4453,30 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4612,20 +4496,18 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>40</v>
@@ -4638,7 +4520,7 @@
         <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>40</v>
@@ -4674,7 +4556,7 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -4686,16 +4568,16 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -4706,21 +4588,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4729,18 +4611,20 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -4777,40 +4661,40 @@
         <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -4821,10 +4705,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4835,7 +4719,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4847,18 +4731,20 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4906,13 +4792,13 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
@@ -4924,10 +4810,10 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>40</v>
@@ -4938,21 +4824,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -4961,22 +4847,22 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -4986,7 +4872,7 @@
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -5025,13 +4911,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5040,13 +4926,13 @@
         <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5057,14 +4943,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5077,23 +4963,23 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5118,13 +5004,13 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5142,10 +5028,10 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>51</v>
@@ -5157,41 +5043,41 @@
         <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
@@ -5200,18 +5086,20 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
@@ -5235,35 +5123,37 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
@@ -5272,37 +5162,35 @@
         <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -5317,18 +5205,20 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5337,7 +5227,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5352,37 +5242,35 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
@@ -5391,16 +5279,16 @@
         <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -5408,18 +5296,20 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>51</v>
@@ -5434,16 +5324,20 @@
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5467,13 +5361,13 @@
         <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5491,10 +5385,10 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>51</v>
@@ -5506,31 +5400,31 @@
         <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5540,25 +5434,29 @@
         <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5606,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>68</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5618,34 +5516,34 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5655,27 +5553,29 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5711,19 +5611,19 @@
         <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5735,41 +5635,41 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5781,19 +5681,19 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -5842,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -5857,16 +5757,16 @@
         <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -5874,10 +5774,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5888,31 +5788,31 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -5922,7 +5822,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -5961,13 +5861,13 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
@@ -5979,57 +5879,59 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6078,13 +5980,13 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -6093,31 +5995,31 @@
         <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6133,23 +6035,21 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>40</v>
       </c>
@@ -6197,13 +6097,13 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
@@ -6212,16 +6112,16 @@
         <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6229,21 +6129,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -6255,19 +6155,17 @@
         <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6304,23 +6202,25 @@
         <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
@@ -6329,16 +6229,16 @@
         <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6346,16 +6246,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6365,29 +6263,25 @@
         <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6435,7 +6329,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6447,66 +6341,64 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6554,46 +6446,46 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6603,28 +6495,28 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -6673,7 +6565,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6685,41 +6577,41 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>94</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6728,22 +6620,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -6792,13 +6684,13 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
@@ -6807,16 +6699,16 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -6824,10 +6716,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6835,35 +6727,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6911,13 +6799,13 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
@@ -6929,35 +6817,35 @@
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>52</v>
@@ -6969,19 +6857,17 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7030,13 +6916,13 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
@@ -7048,24 +6934,24 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7088,7 +6974,7 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>389</v>
@@ -7096,9 +6982,7 @@
       <c r="M46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>40</v>
@@ -7123,13 +7007,13 @@
         <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>40</v>
@@ -7147,7 +7031,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7165,10 +7049,10 @@
         <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7179,14 +7063,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7202,7 +7086,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>395</v>
@@ -7213,9 +7097,11 @@
       <c r="M47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7264,7 +7150,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7282,956 +7168,20 @@
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO55">
+  <autoFilter ref="A1:AO47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8241,7 +7191,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HDR to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Report
@@ -1607,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1620,10 +1743,11 @@
     <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="238.87109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1631,5557 +1755,5682 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="53.09765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s" s="2">
+      <c r="M1" t="s" s="1">
         <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>141</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>301</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>40</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>126</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>129</v>
+        <v>388</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>366</v>
+        <v>139</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>367</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>176</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>40</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO47">
+  <autoFilter ref="A1:AO48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7191,7 +7440,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -253,7 +253,7 @@
   </si>
   <si>
     <t>Report
-TestResultResultsLabsLaboratory</t>
+TestResultResultsLabsLaboratoryLab ResultLab Report</t>
   </si>
   <si>
     <t>0</t>
@@ -272,14 +272,11 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-8:effective[x] SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies effective.exists()}us-core-9:issued SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies issued.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -441,33 +438,57 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/Notes}
+</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>labTestPromises.labCommentEvents.comments</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -475,6 +496,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -508,9 +532,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -557,11 +578,10 @@
     <t>DiagnosticReport.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -764,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chOrder) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -789,6 +809,9 @@
     <t>outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
+    <t>Contained ServiceRequest (labTestPromises.orderedTestCode)</t>
+  </si>
+  <si>
     <t>DiagnosticReport.status</t>
   </si>
   <si>
@@ -801,7 +824,11 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>us-core-8
+us-core-9</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -881,16 +908,19 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>US Core Laboratory Report Order Code</t>
+  </si>
+  <si>
+    <t>The test, panel or battery that was ordered.</t>
+  </si>
+  <si>
+    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
+  </si>
+  <si>
+    <t>LOINC codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-lab-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -976,7 +1006,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -1050,7 +1080,7 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report</t>
+    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1066,6 +1096,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-8
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1088,7 +1122,7 @@
 </t>
   </si>
   <si>
-    <t>ConvertDate(labTestPromises.reportCompleDate.literal)</t>
+    <t>ConvertDate(labTestPromises.specimen.specimenTakenDate)</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
@@ -1102,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made</t>
+    <t>When the report was released</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1114,6 +1148,10 @@
     <t>Clinicians need to be able to check the date that the report was released.</t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-9
+</t>
+  </si>
+  <si>
     <t>OBR-22</t>
   </si>
   <si>
@@ -1121,6 +1159,9 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>ConvertDate(labTestPromises.reportCompleDate.literal)</t>
   </si>
   <si>
     <t>DiagnosticReport.performer</t>
@@ -1130,11 +1171,11 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
-    <t>performingOrganization</t>
+    <t>recordSource</t>
   </si>
   <si>
     <t>The diagnostic service that is responsible for issuing the report.</t>
@@ -1158,7 +1199,7 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>GetLocation(labTestPromises.recordSource)</t>
+    <t>GetOrganization(labTestPromises.recordSource)</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1216,7 +1257,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chTest|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chPanel) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.chTest) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1360,9 +1401,6 @@
   </si>
   <si>
     <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
-  </si>
-  <si>
-    <t>labTestPromises.labCommentEvents.comments combined</t>
   </si>
   <si>
     <t>DiagnosticReport.conclusionCode</t>
@@ -1730,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1749,7 +1787,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="238.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.87109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1764,7 +1802,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.98046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1778,7 +1816,7 @@
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="53.09765625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="56.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1943,7 +1981,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2005,30 +2043,30 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2039,28 +2077,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2110,13 +2148,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2142,10 +2180,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2156,25 +2194,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2225,19 +2263,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2257,10 +2295,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2271,28 +2309,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2342,19 +2380,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2374,10 +2412,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2388,7 +2426,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2400,16 +2438,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2435,43 +2473,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2491,21 +2529,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2517,16 +2555,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2576,28 +2614,28 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2608,14 +2646,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2634,16 +2672,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2693,7 +2731,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2714,7 +2752,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2725,14 +2763,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2751,17 +2789,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2798,19 +2834,17 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2822,7 +2856,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2831,7 +2865,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2842,14 +2876,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2859,29 +2895,25 @@
         <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2929,7 +2961,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2938,10 +2970,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2950,13 +2982,13 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2972,7 +3004,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -2981,25 +3013,25 @@
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3036,17 +3068,19 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3058,19 +3092,19 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -3078,47 +3112,45 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3155,19 +3187,17 @@
         <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3179,19 +3209,19 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3199,42 +3229,48 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3282,31 +3318,31 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3314,21 +3350,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3340,17 +3376,15 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3387,40 +3421,40 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3438,26 +3472,26 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>179</v>
@@ -3466,11 +3500,9 @@
         <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3479,7 +3511,7 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>81</v>
@@ -3494,52 +3526,52 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3550,10 +3582,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3561,34 +3593,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3598,7 +3630,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -3613,13 +3645,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3637,28 +3669,28 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3669,10 +3701,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3683,31 +3715,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3720,7 +3752,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3732,13 +3764,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3756,28 +3788,28 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3788,10 +3820,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3802,30 +3834,32 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3837,64 +3871,64 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3905,10 +3939,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3919,27 +3953,29 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3952,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -3988,28 +4024,28 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4020,10 +4056,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4034,29 +4070,27 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4105,28 +4139,28 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4137,21 +4171,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4160,23 +4194,21 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4224,28 +4256,28 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4256,43 +4288,45 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4317,100 +4351,100 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4434,98 +4468,96 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="I24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4536,46 +4568,44 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4587,61 +4617,65 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="I25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4651,7 +4685,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -4666,13 +4700,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4690,73 +4724,75 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4781,13 +4817,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4805,53 +4841,53 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4863,17 +4899,15 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4910,40 +4944,40 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4954,14 +4988,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4977,23 +5011,21 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5029,19 +5061,19 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5053,16 +5085,16 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5087,31 +5119,31 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5121,7 +5153,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5166,13 +5198,13 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5199,36 +5231,38 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5238,7 +5272,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5277,22 +5311,22 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>312</v>
@@ -5301,53 +5335,51 @@
         <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5396,77 +5428,77 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5503,41 +5535,43 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5545,47 +5579,45 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5622,89 +5654,89 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5753,34 +5785,34 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5799,16 +5831,16 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>355</v>
@@ -5878,16 +5910,16 @@
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>361</v>
@@ -5918,16 +5950,16 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>367</v>
@@ -5942,7 +5974,7 @@
         <v>370</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6003,65 +6035,65 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6110,7 +6142,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6122,34 +6154,34 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6159,7 +6191,7 @@
         <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6168,19 +6200,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6229,7 +6261,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6241,44 +6273,44 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
@@ -6287,18 +6319,20 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6346,7 +6380,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6358,34 +6392,34 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6401,21 +6435,21 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6463,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6475,16 +6509,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6495,42 +6529,44 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6578,28 +6614,28 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>169</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6610,21 +6646,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6636,17 +6672,15 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6695,28 +6729,28 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6727,14 +6761,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>406</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6747,26 +6781,24 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6814,7 +6846,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6826,7 +6858,7 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6835,7 +6867,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6846,45 +6878,45 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>413</v>
+        <v>153</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>414</v>
+        <v>154</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6933,19 +6965,19 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6954,7 +6986,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>415</v>
+        <v>134</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6965,10 +6997,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6976,10 +7008,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6988,19 +7020,23 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7048,19 +7084,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7069,7 +7105,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7080,44 +7116,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>166</v>
+        <v>429</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7165,46 +7199,46 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7223,16 +7257,18 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7256,52 +7292,52 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7312,10 +7348,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7338,20 +7374,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>436</v>
+        <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7375,13 +7407,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7399,7 +7431,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7411,26 +7443,145 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO48">
+  <autoFilter ref="A1:AO49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7440,7 +7591,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HDR to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HDR to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Report
@@ -279,6 +279,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-8:effective[x] SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies effective.exists()}us-core-9:issued SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies issued.exists()}</t>
   </si>
   <si>
+    <t>HDR labTestPromises</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>HDR labTestPromises</t>
   </si>
   <si>
     <t>DiagnosticReport.id</t>
@@ -669,7 +669,7 @@
     <t>DiagnosticReport.identifier.system</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+    <t>DNS universalIdType: `urn:fdc:` + {universalID} + `:` + {namespaceId}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -687,10 +687,6 @@
     <t>Identifier.system</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
-  </si>
-  <si>
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
@@ -703,7 +699,7 @@
     <t>DiagnosticReport.identifier.value</t>
   </si>
   <si>
-    <t>`recordIdentifier` | `.` | {labTestPromises.recordIdentifier.identity}</t>
+    <t>{labTestPromises.recordIdentifier.identity}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -800,6 +796,9 @@
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
+    <t>Contained ServiceRequest (labTestPromises.orderedTestCode)</t>
+  </si>
+  <si>
     <t>Event.basedOn</t>
   </si>
   <si>
@@ -807,9 +806,6 @@
   </si>
   <si>
     <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Contained ServiceRequest (labTestPromises.orderedTestCode)</t>
   </si>
   <si>
     <t>DiagnosticReport.status</t>
@@ -831,6 +827,9 @@
 us-core-9</t>
   </si>
   <si>
+    <t>`final` or `corrected` or `preliminary or `cancelled`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -841,9 +840,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final`</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
@@ -875,6 +871,9 @@
 </t>
   </si>
   <si>
+    <t>all codes from contained labTests</t>
+  </si>
+  <si>
     <t>OBR-24</t>
   </si>
   <si>
@@ -882,9 +881,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>all codes from contained labTests</t>
   </si>
   <si>
     <t>DiagnosticReport.category:LaboratorySlice</t>
@@ -935,9 +931,6 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>labTestPromises.labSubscript</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code.id</t>
   </si>
   <si>
@@ -993,6 +986,9 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>`CH`, no coding</t>
+  </si>
+  <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
@@ -1019,6 +1015,9 @@
     <t>SHALL know the subject context.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1029,9 +1028,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>DiagnosticReport.encounter</t>
@@ -1076,8 +1072,8 @@
 Effective TimeOccurrence</t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Diagnostically relevant time (typically the time of specimen collection)</t>
@@ -1096,6 +1092,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">us-core-8
 </t>
   </si>
@@ -1118,10 +1117,6 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>ConvertDate(labTestPromises.specimen.specimenTakenDate)</t>
   </si>
   <si>
@@ -1152,6 +1147,9 @@
 </t>
   </si>
   <si>
+    <t>ConvertDate(labTestPromises.reportCompleDate.literal)</t>
+  </si>
+  <si>
     <t>OBR-22</t>
   </si>
   <si>
@@ -1159,9 +1157,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>ConvertDate(labTestPromises.reportCompleDate.literal)</t>
   </si>
   <si>
     <t>DiagnosticReport.performer</t>
@@ -1187,6 +1182,9 @@
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
+    <t>GetOrganization(labTestPromises.recordSource)</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1197,9 +1195,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetOrganization(labTestPromises.recordSource)</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1244,10 +1239,10 @@
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
+    <t>Contained Specimen (labTestPromises.specimen)</t>
+  </si>
+  <si>
     <t>SPM</t>
-  </si>
-  <si>
-    <t>Contained Specimen (labTestPromises.specimen)</t>
   </si>
   <si>
     <t>DiagnosticReport.result</t>
@@ -1273,13 +1268,13 @@
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
   </si>
   <si>
+    <t>Contained Observation(labTestPromises.labTests)</t>
+  </si>
+  <si>
     <t>OBXs</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>Contained Observation(labTestPromises.labTests)</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1812,11 +1807,11 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="56.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.96484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.02734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2055,10 +2050,10 @@
         <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2635,10 +2630,10 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>81</v>
@@ -2752,10 +2747,10 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>81</v>
@@ -2976,7 +2971,7 @@
         <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>81</v>
@@ -2988,7 +2983,7 @@
         <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -3101,10 +3096,10 @@
         <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -3212,19 +3207,19 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3333,19 +3328,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3454,10 +3449,10 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3571,10 +3566,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3687,13 +3682,13 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3806,13 +3801,13 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3919,19 +3914,19 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3939,10 +3934,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3968,13 +3963,13 @@
         <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3988,43 +3983,43 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4042,13 +4037,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4056,10 +4051,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4082,13 +4077,13 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4139,7 +4134,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4157,13 +4152,13 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4171,10 +4166,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4197,16 +4192,16 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4256,7 +4251,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4274,13 +4269,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4288,14 +4283,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4305,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
@@ -4314,19 +4309,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4375,7 +4370,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4390,27 +4385,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO22" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4436,14 +4431,14 @@
         <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4472,7 +4467,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4490,7 +4485,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
@@ -4499,37 +4494,37 @@
         <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4551,13 +4546,13 @@
         <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4583,19 +4578,19 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -4605,7 +4600,7 @@
         <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4620,33 +4615,33 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4668,13 +4663,13 @@
         <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4685,7 +4680,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -4700,14 +4695,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4742,28 +4737,28 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4785,13 +4780,13 @@
         <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4820,11 +4815,11 @@
         <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4841,7 +4836,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>91</v>
@@ -4856,27 +4851,27 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4977,10 +4972,10 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4988,10 +4983,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5094,10 +5089,10 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5105,10 +5100,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5119,7 +5114,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5131,19 +5126,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5192,7 +5187,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5210,13 +5205,13 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5224,10 +5219,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5235,13 +5230,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
@@ -5253,16 +5248,16 @@
         <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5272,7 +5267,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5311,7 +5306,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5326,16 +5321,16 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5343,14 +5338,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5369,17 +5364,17 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5428,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5443,31 +5438,31 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5486,19 +5481,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5547,7 +5542,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5562,35 +5557,35 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>91</v>
@@ -5605,19 +5600,19 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5654,17 +5649,17 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5679,19 +5674,19 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5699,17 +5694,17 @@
         <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>350</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -5724,19 +5719,19 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5785,7 +5780,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5800,35 +5795,35 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
@@ -5843,19 +5838,19 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5904,7 +5899,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5913,44 +5908,44 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>92</v>
@@ -5962,19 +5957,19 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6023,7 +6018,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6038,31 +6033,31 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6081,19 +6076,19 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6142,7 +6137,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6157,27 +6152,27 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AM37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6185,10 +6180,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>92</v>
@@ -6200,19 +6195,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6261,7 +6256,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6276,31 +6271,31 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO38" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6319,19 +6314,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6380,7 +6375,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6395,27 +6390,27 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6438,16 +6433,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6497,7 +6492,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6518,10 +6513,10 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6529,14 +6524,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6555,17 +6550,17 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6614,7 +6609,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6632,13 +6627,13 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6646,10 +6641,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6750,10 +6745,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6761,10 +6756,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6867,10 +6862,10 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6878,14 +6873,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6907,10 +6902,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>153</v>
@@ -6965,7 +6960,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6986,10 +6981,10 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6997,10 +6992,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7026,16 +7021,16 @@
         <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7084,7 +7079,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7105,10 +7100,10 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7116,10 +7111,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7142,13 +7137,13 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7199,7 +7194,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>91</v>
@@ -7220,10 +7215,10 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7231,14 +7226,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7260,14 +7255,14 @@
         <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7316,7 +7311,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7334,13 +7329,13 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7348,10 +7343,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7377,10 +7372,10 @@
         <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7407,14 +7402,14 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7431,7 +7426,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7449,13 +7444,13 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7463,10 +7458,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7489,19 +7484,19 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7550,7 +7545,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7568,13 +7563,13 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T15:35:14-05:00</t>
+    <t>2024-05-18T11:51:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -847,6 +850,9 @@
   <si>
     <t>Department
 Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Service category</t>
@@ -893,6 +899,20 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
     &lt;code value="LAB"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:ChSlice</t>
+  </si>
+  <si>
+    <t>ChSlice</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
+    &lt;code value="CH"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1677,83 +1697,83 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1816,5178 +1836,5178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AO35" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AI37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL37" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="O38" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>173</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>174</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>176</v>
+        <v>405</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>418</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O44" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6999,229 +7019,233 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>424</v>
+        <v>154</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>425</v>
+        <v>155</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>426</v>
+        <v>135</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>431</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7233,26 +7257,26 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>434</v>
@@ -7261,322 +7285,437 @@
         <v>435</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>432</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="S49" t="s" s="2">
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
+      <c r="AI50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO49">
+  <autoFilter ref="A1:AO50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7586,7 +7725,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -776,6 +776,49 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
+    <t>DiagnosticReport.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>`recordIdentifier.identifier` | `/` | {specimentTakenDate.literal}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.assigner</t>
+  </si>
+  <si>
     <t>DiagnosticReport.basedOn</t>
   </si>
   <si>
@@ -799,7 +842,7 @@
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
-    <t>Contained ServiceRequest (labTestPromises.orderedTestCode)</t>
+    <t>Contained ServiceRequest(labTestPromises.orderedTestCode)</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1259,7 +1302,7 @@
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
-    <t>Contained Specimen (labTestPromises.specimen)</t>
+    <t>Contained Specimen(labTestPromises.specimen)</t>
   </si>
   <si>
     <t>SPM</t>
@@ -1783,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,7 +1870,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.46875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="118.1328125" customWidth="true" bestFit="true"/>
@@ -3257,7 +3300,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>92</v>
@@ -4306,42 +4349,44 @@
         <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4390,7 +4435,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4405,27 +4450,27 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4433,33 +4478,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4483,11 +4526,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4505,74 +4550,74 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4598,21 +4643,23 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4620,7 +4667,7 @@
         <v>141</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4632,36 +4679,34 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4671,27 +4716,29 @@
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4700,7 +4747,7 @@
         <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>82</v>
@@ -4715,13 +4762,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4739,13 +4786,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -4760,37 +4807,35 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
@@ -4802,15 +4847,17 @@
         <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4819,7 +4866,7 @@
         <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>82</v>
@@ -4834,13 +4881,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4858,13 +4905,13 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -4879,35 +4926,35 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -4916,18 +4963,20 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -4939,7 +4988,7 @@
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -4951,13 +5000,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -4975,10 +5024,10 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>92</v>
@@ -4987,30 +5036,30 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5030,18 +5079,20 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5054,7 +5105,7 @@
         <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>82</v>
@@ -5090,7 +5141,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5102,7 +5153,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5111,10 +5162,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5122,21 +5173,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5145,20 +5196,18 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5195,31 +5244,31 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5228,10 +5277,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5239,10 +5288,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5253,7 +5302,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5265,20 +5314,18 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5326,13 +5373,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5347,10 +5394,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5358,21 +5405,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>93</v>
@@ -5381,22 +5428,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5406,7 +5453,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5445,13 +5492,13 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
@@ -5460,16 +5507,16 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5477,14 +5524,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5497,23 +5544,23 @@
         <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5538,13 +5585,11 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5562,56 +5607,56 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>328</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -5620,20 +5665,18 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5657,37 +5700,35 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5696,31 +5737,33 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5739,20 +5782,18 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5761,7 +5802,7 @@
         <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>82</v>
@@ -5776,38 +5817,40 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>104</v>
@@ -5816,30 +5859,30 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>353</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5858,20 +5901,18 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5880,7 +5921,7 @@
         <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>82</v>
@@ -5895,13 +5936,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -5919,46 +5960,46 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>353</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5977,20 +6018,18 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6014,13 +6053,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6038,78 +6077,74 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>371</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6157,53 +6192,53 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>369</v>
+        <v>176</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>177</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>382</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6212,23 +6247,21 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>385</v>
+        <v>181</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6264,19 +6297,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6288,30 +6321,30 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>379</v>
+        <v>177</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6319,34 +6352,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>389</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>391</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6395,7 +6428,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6410,16 +6443,16 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6427,21 +6460,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -6450,22 +6483,22 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6475,7 +6508,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -6514,13 +6547,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6529,16 +6562,16 @@
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6546,44 +6579,44 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6631,13 +6664,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6646,31 +6679,31 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6689,17 +6722,19 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6748,13 +6783,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6766,56 +6801,60 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -6851,19 +6890,17 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6872,67 +6909,71 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -6980,77 +7021,77 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7099,77 +7140,77 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>135</v>
+        <v>381</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7218,13 +7259,13 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7233,38 +7274,38 @@
         <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7276,16 +7317,20 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7333,13 +7378,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -7351,38 +7396,38 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -7391,17 +7436,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7450,13 +7497,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -7465,16 +7512,16 @@
         <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7482,24 +7529,24 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -7508,16 +7555,20 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7541,13 +7592,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7565,7 +7616,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7580,16 +7631,16 @@
         <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7597,10 +7648,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7623,20 +7674,18 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7684,7 +7733,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7705,17 +7754,1070 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="N55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO50">
+  <autoFilter ref="A1:AO59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7725,7 +8827,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.chReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
